--- a/Plan.xlsx
+++ b/Plan.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="17030"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="17329"/>
   <workbookPr codeName="ThisWorkbook" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7425" tabRatio="788"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7425" tabRatio="788" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Calendar" sheetId="14" r:id="rId1"/>
@@ -352,7 +352,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -461,6 +461,15 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="0" tint="-0.14993743705557422"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyProtection="0">
@@ -503,7 +512,7 @@
       <alignment wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment horizontal="left" indent="1"/>
     </xf>
@@ -611,17 +620,23 @@
     <xf numFmtId="165" fontId="20" fillId="0" borderId="7" xfId="7" applyFont="1" applyFill="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="9" xfId="9" applyFont="1" applyBorder="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="9" xfId="9" applyBorder="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
     <xf numFmtId="165" fontId="9" fillId="0" borderId="0" xfId="8">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="9" xfId="9" applyFont="1" applyBorder="1">
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="6" xfId="8" applyBorder="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="10" xfId="9" applyFont="1" applyBorder="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="9" xfId="9" applyBorder="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="15">
@@ -1019,13 +1034,13 @@
     <tabColor theme="4"/>
     <pageSetUpPr autoPageBreaks="0" fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:L191"/>
+  <dimension ref="A1:L194"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K24" sqref="K24"/>
+    <sheetView showGridLines="0" topLeftCell="A32" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F77" sqref="F77"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="11.65" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="11.65" outlineLevelRow="1" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="2.69140625" style="1" customWidth="1"/>
     <col min="2" max="2" width="18.3046875" customWidth="1"/>
@@ -1034,7 +1049,7 @@
     <col min="10" max="10" width="9" style="29"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="1" customFormat="1" ht="54" customHeight="1" x14ac:dyDescent="1.35">
+    <row r="1" spans="1:12" s="1" customFormat="1" ht="54" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="1.35">
       <c r="B1" s="14">
         <v>2016</v>
       </c>
@@ -1048,7 +1063,7 @@
       </c>
       <c r="J1" s="27"/>
     </row>
-    <row r="2" spans="1:12" s="1" customFormat="1" ht="48.75" customHeight="1" x14ac:dyDescent="1.35">
+    <row r="2" spans="1:12" s="1" customFormat="1" ht="48.75" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="1.35">
       <c r="B2" s="10"/>
       <c r="C2"/>
       <c r="D2" s="4"/>
@@ -1056,12 +1071,12 @@
       <c r="F2" s="4"/>
       <c r="G2" s="4"/>
       <c r="J2" s="27"/>
-      <c r="K2" s="40" t="s">
+      <c r="K2" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="L2" s="40"/>
-    </row>
-    <row r="3" spans="1:12" s="3" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="L2" s="37"/>
+    </row>
+    <row r="3" spans="1:12" s="3" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A3" s="2"/>
       <c r="B3" s="16" t="s">
         <v>1</v>
@@ -1095,7 +1110,7 @@
       </c>
       <c r="J3" s="28"/>
     </row>
-    <row r="4" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:12" ht="16.5" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="B4" s="35">
         <f t="array" ref="B4:H4">Days+1+DATE(Calendar1Year,Calendar1MonthOption,1)-WEEKDAY(DATE(Calendar1Year,Calendar1MonthOption,1),WeekdayOption)</f>
         <v>42583</v>
@@ -1119,7 +1134,7 @@
         <v>42589</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="56.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:12" ht="56.25" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="B5" s="36"/>
       <c r="C5" s="36"/>
       <c r="D5" s="36"/>
@@ -1134,7 +1149,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:12" ht="16.5" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="B6" s="5">
         <f t="array" ref="B6:H6">Days+8+DATE(Calendar1Year,Calendar1MonthOption,1)-WEEKDAY(DATE(Calendar1Year,Calendar1MonthOption,1),WeekdayOption)</f>
         <v>42590</v>
@@ -1158,7 +1173,7 @@
         <v>42596</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="56.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:12" ht="56.25" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="B7" s="6" t="s">
         <v>21</v>
       </c>
@@ -1184,7 +1199,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:12" ht="16.5" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="B8" s="5">
         <f t="array" ref="B8:H8">Days+15+DATE(Calendar1Year,Calendar1MonthOption,1)-WEEKDAY(DATE(Calendar1Year,Calendar1MonthOption,1),WeekdayOption)</f>
         <v>42597</v>
@@ -1208,7 +1223,7 @@
         <v>42603</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="56.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:12" ht="56.25" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="B9" s="6" t="s">
         <v>7</v>
       </c>
@@ -1234,7 +1249,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:12" ht="16.5" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="B10" s="5">
         <f t="array" ref="B10:H10">Days+22+DATE(Calendar1Year,Calendar1MonthOption,1)-WEEKDAY(DATE(Calendar1Year,Calendar1MonthOption,1),WeekdayOption)</f>
         <v>42604</v>
@@ -1258,7 +1273,7 @@
         <v>42610</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="56.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:12" ht="56.25" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="B11" s="6" t="s">
         <v>9</v>
       </c>
@@ -1284,7 +1299,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:12" ht="16.5" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="B12" s="5">
         <f t="array" ref="B12:H12">Days+29+DATE(Calendar1Year,Calendar1MonthOption,1)-WEEKDAY(DATE(Calendar1Year,Calendar1MonthOption,1),WeekdayOption)</f>
         <v>42611</v>
@@ -1308,7 +1323,7 @@
         <v>42617</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="57" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:12" ht="57" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="B13" s="6" t="s">
         <v>11</v>
       </c>
@@ -1326,7 +1341,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:12" ht="16.5" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="B14" s="5">
         <f t="array" ref="B14:C14">Days+36+DATE(Calendar1Year,Calendar1MonthOption,1)-WEEKDAY(DATE(Calendar1Year,Calendar1MonthOption,1),WeekdayOption)</f>
         <v>42618</v>
@@ -1337,21 +1352,21 @@
       <c r="D14" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="E14" s="39"/>
-      <c r="F14" s="39"/>
-      <c r="G14" s="39"/>
-      <c r="H14" s="39"/>
-    </row>
-    <row r="15" spans="1:12" ht="63.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E14" s="42"/>
+      <c r="F14" s="42"/>
+      <c r="G14" s="42"/>
+      <c r="H14" s="42"/>
+    </row>
+    <row r="15" spans="1:12" ht="63.75" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="B15" s="6"/>
       <c r="C15" s="6"/>
-      <c r="D15" s="37"/>
-      <c r="E15" s="37"/>
-      <c r="F15" s="37"/>
-      <c r="G15" s="37"/>
-      <c r="H15" s="37"/>
-    </row>
-    <row r="16" spans="1:12" s="23" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="D15" s="41"/>
+      <c r="E15" s="40"/>
+      <c r="F15" s="40"/>
+      <c r="G15" s="40"/>
+      <c r="H15" s="40"/>
+    </row>
+    <row r="16" spans="1:12" s="23" customFormat="1" ht="19.5" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A16" s="20"/>
       <c r="B16" s="21"/>
       <c r="C16" s="21"/>
@@ -1362,7 +1377,7 @@
       <c r="H16" s="22"/>
       <c r="J16" s="30"/>
     </row>
-    <row r="17" spans="1:10" s="1" customFormat="1" ht="54" customHeight="1" x14ac:dyDescent="1.35">
+    <row r="17" spans="1:10" s="1" customFormat="1" ht="54" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="1.35">
       <c r="B17" s="13">
         <f>YEAR(DATE(Calendar1Year,Calendar1MonthOption+1,1))</f>
         <v>2016</v>
@@ -1380,7 +1395,7 @@
       </c>
       <c r="J17" s="27"/>
     </row>
-    <row r="18" spans="1:10" s="1" customFormat="1" ht="48.75" customHeight="1" x14ac:dyDescent="1.35">
+    <row r="18" spans="1:10" s="1" customFormat="1" ht="48.75" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="1.35">
       <c r="B18" s="10"/>
       <c r="C18"/>
       <c r="D18" s="4"/>
@@ -1389,7 +1404,7 @@
       <c r="G18" s="4"/>
       <c r="J18" s="27"/>
     </row>
-    <row r="19" spans="1:10" s="3" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:10" s="3" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A19" s="2"/>
       <c r="B19" s="16" t="str">
         <f>UPPER(TEXT(B20,"dddd"))</f>
@@ -1421,7 +1436,7 @@
       </c>
       <c r="J19" s="28"/>
     </row>
-    <row r="20" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:10" ht="16.5" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="B20" s="5">
         <f t="array" ref="B20:H20">Days+1+DATE(Calendar2Year,Calendar2MonthOption,1)-WEEKDAY(DATE(Calendar2Year,Calendar2MonthOption,1),WeekdayOption)</f>
         <v>42611</v>
@@ -1445,7 +1460,7 @@
         <v>42617</v>
       </c>
     </row>
-    <row r="21" spans="1:10" ht="56.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:10" ht="56.25" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="B21" s="6"/>
       <c r="C21" s="6"/>
       <c r="D21" s="6"/>
@@ -1465,7 +1480,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:10" ht="16.5" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="B22" s="5">
         <f t="array" ref="B22:H22">Days+8+DATE(Calendar2Year,Calendar2MonthOption,1)-WEEKDAY(DATE(Calendar2Year,Calendar2MonthOption,1),WeekdayOption)</f>
         <v>42618</v>
@@ -1489,7 +1504,7 @@
         <v>42624</v>
       </c>
     </row>
-    <row r="23" spans="1:10" ht="56.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:10" ht="56.25" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="B23" s="6" t="s">
         <v>12</v>
       </c>
@@ -1515,7 +1530,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="24" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:10" ht="16.5" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="B24" s="5">
         <f t="array" ref="B24:H24">Days+15+DATE(Calendar2Year,Calendar2MonthOption,1)-WEEKDAY(DATE(Calendar2Year,Calendar2MonthOption,1),WeekdayOption)</f>
         <v>42625</v>
@@ -1539,7 +1554,7 @@
         <v>42631</v>
       </c>
     </row>
-    <row r="25" spans="1:10" ht="56.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:10" ht="56.25" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="B25" s="6" t="s">
         <v>14</v>
       </c>
@@ -1565,7 +1580,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="26" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:10" ht="16.5" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="B26" s="5">
         <f t="array" ref="B26:H26">Days+22+DATE(Calendar2Year,Calendar2MonthOption,1)-WEEKDAY(DATE(Calendar2Year,Calendar2MonthOption,1),WeekdayOption)</f>
         <v>42632</v>
@@ -1589,7 +1604,7 @@
         <v>42638</v>
       </c>
     </row>
-    <row r="27" spans="1:10" ht="56.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:10" ht="56.25" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="B27" s="6" t="s">
         <v>22</v>
       </c>
@@ -1615,7 +1630,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="28" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:10" ht="16.5" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="B28" s="5">
         <f t="array" ref="B28:H28">Days+29+DATE(Calendar2Year,Calendar2MonthOption,1)-WEEKDAY(DATE(Calendar2Year,Calendar2MonthOption,1),WeekdayOption)</f>
         <v>42639</v>
@@ -1639,7 +1654,7 @@
         <v>42645</v>
       </c>
     </row>
-    <row r="29" spans="1:10" ht="57" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:10" ht="57" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="B29" s="6" t="s">
         <v>22</v>
       </c>
@@ -1661,7 +1676,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="30" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:10" ht="16.5" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="B30" s="5">
         <f t="array" ref="B30:C30">Days+36+DATE(Calendar2Year,Calendar2MonthOption,1)-WEEKDAY(DATE(Calendar2Year,Calendar2MonthOption,1),WeekdayOption)</f>
         <v>42646</v>
@@ -1677,16 +1692,16 @@
       <c r="G30" s="39"/>
       <c r="H30" s="39"/>
     </row>
-    <row r="31" spans="1:10" ht="63.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:10" ht="63.75" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="B31" s="6"/>
       <c r="C31" s="6"/>
-      <c r="D31" s="37"/>
-      <c r="E31" s="37"/>
-      <c r="F31" s="37"/>
-      <c r="G31" s="37"/>
-      <c r="H31" s="37"/>
-    </row>
-    <row r="32" spans="1:10" s="23" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="D31" s="40"/>
+      <c r="E31" s="40"/>
+      <c r="F31" s="40"/>
+      <c r="G31" s="40"/>
+      <c r="H31" s="40"/>
+    </row>
+    <row r="32" spans="1:10" s="23" customFormat="1" ht="19.5" customHeight="1" collapsed="1" x14ac:dyDescent="0.35">
       <c r="A32" s="20"/>
       <c r="B32" s="21"/>
       <c r="C32" s="21"/>
@@ -1785,9 +1800,6 @@
       <c r="F37" s="6"/>
       <c r="G37" s="6"/>
       <c r="H37" s="8"/>
-      <c r="J37" s="29">
-        <v>8</v>
-      </c>
     </row>
     <row r="38" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B38" s="5">
@@ -1821,9 +1833,6 @@
       <c r="F39" s="6"/>
       <c r="G39" s="6"/>
       <c r="H39" s="8"/>
-      <c r="J39" s="29">
-        <v>9</v>
-      </c>
     </row>
     <row r="40" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B40" s="5">
@@ -1857,9 +1866,6 @@
       <c r="F41" s="6"/>
       <c r="G41" s="6"/>
       <c r="H41" s="8"/>
-      <c r="J41" s="29">
-        <v>10</v>
-      </c>
     </row>
     <row r="42" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B42" s="5">
@@ -1946,13 +1952,13 @@
     <row r="47" spans="1:10" ht="63.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B47" s="6"/>
       <c r="C47" s="6"/>
-      <c r="D47" s="37"/>
-      <c r="E47" s="37"/>
-      <c r="F47" s="37"/>
-      <c r="G47" s="37"/>
-      <c r="H47" s="37"/>
-    </row>
-    <row r="48" spans="1:10" s="23" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="D47" s="40"/>
+      <c r="E47" s="40"/>
+      <c r="F47" s="40"/>
+      <c r="G47" s="40"/>
+      <c r="H47" s="40"/>
+    </row>
+    <row r="48" spans="1:10" s="23" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A48" s="20"/>
       <c r="B48" s="21"/>
       <c r="C48" s="21"/>
@@ -1963,7 +1969,7 @@
       <c r="H48" s="22"/>
       <c r="J48" s="30"/>
     </row>
-    <row r="49" spans="1:10" s="1" customFormat="1" ht="54" hidden="1" customHeight="1" x14ac:dyDescent="1.35">
+    <row r="49" spans="1:10" s="1" customFormat="1" ht="54" customHeight="1" x14ac:dyDescent="1.35">
       <c r="B49" s="13">
         <f>YEAR(DATE(Calendar3Year,Calendar3MonthOption+1,1))</f>
         <v>2016</v>
@@ -1978,7 +1984,7 @@
       <c r="G49" s="4"/>
       <c r="J49" s="27"/>
     </row>
-    <row r="50" spans="1:10" s="1" customFormat="1" ht="48.75" hidden="1" customHeight="1" x14ac:dyDescent="1.35">
+    <row r="50" spans="1:10" s="1" customFormat="1" ht="48.75" customHeight="1" x14ac:dyDescent="1.35">
       <c r="B50" s="10"/>
       <c r="C50"/>
       <c r="D50" s="4"/>
@@ -1987,7 +1993,7 @@
       <c r="G50" s="4"/>
       <c r="J50" s="27"/>
     </row>
-    <row r="51" spans="1:10" s="3" customFormat="1" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:10" s="3" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A51" s="2"/>
       <c r="B51" s="16" t="str">
         <f>UPPER(TEXT(B52,"dddd"))</f>
@@ -2019,7 +2025,7 @@
       </c>
       <c r="J51" s="28"/>
     </row>
-    <row r="52" spans="1:10" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B52" s="5">
         <f t="array" ref="B52:H52">Days+1+DATE(Calendar4Year,Calendar4MonthOption,1)-WEEKDAY(DATE(Calendar4Year,Calendar4MonthOption,1),WeekdayOption)</f>
         <v>42674</v>
@@ -2043,7 +2049,7 @@
         <v>42680</v>
       </c>
     </row>
-    <row r="53" spans="1:10" ht="56.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:10" ht="56.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B53" s="6"/>
       <c r="C53" s="6"/>
       <c r="D53" s="6"/>
@@ -2052,7 +2058,7 @@
       <c r="G53" s="6"/>
       <c r="H53" s="8"/>
     </row>
-    <row r="54" spans="1:10" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B54" s="5">
         <f t="array" ref="B54:H54">Days+8+DATE(Calendar4Year,Calendar4MonthOption,1)-WEEKDAY(DATE(Calendar4Year,Calendar4MonthOption,1),WeekdayOption)</f>
         <v>42681</v>
@@ -2076,7 +2082,7 @@
         <v>42687</v>
       </c>
     </row>
-    <row r="55" spans="1:10" ht="56.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:10" ht="56.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B55" s="6"/>
       <c r="C55" s="6"/>
       <c r="D55" s="6"/>
@@ -2085,7 +2091,7 @@
       <c r="G55" s="6"/>
       <c r="H55" s="8"/>
     </row>
-    <row r="56" spans="1:10" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B56" s="5">
         <f t="array" ref="B56:H56">Days+15+DATE(Calendar4Year,Calendar4MonthOption,1)-WEEKDAY(DATE(Calendar4Year,Calendar4MonthOption,1),WeekdayOption)</f>
         <v>42688</v>
@@ -2109,7 +2115,7 @@
         <v>42694</v>
       </c>
     </row>
-    <row r="57" spans="1:10" ht="56.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:10" ht="56.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B57" s="6"/>
       <c r="C57" s="6"/>
       <c r="D57" s="6"/>
@@ -2118,7 +2124,7 @@
       <c r="G57" s="6"/>
       <c r="H57" s="8"/>
     </row>
-    <row r="58" spans="1:10" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B58" s="5">
         <f t="array" ref="B58:H58">Days+22+DATE(Calendar4Year,Calendar4MonthOption,1)-WEEKDAY(DATE(Calendar4Year,Calendar4MonthOption,1),WeekdayOption)</f>
         <v>42695</v>
@@ -2142,7 +2148,7 @@
         <v>42701</v>
       </c>
     </row>
-    <row r="59" spans="1:10" ht="56.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:10" ht="56.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B59" s="6"/>
       <c r="C59" s="6"/>
       <c r="D59" s="6"/>
@@ -2151,7 +2157,7 @@
       <c r="G59" s="6"/>
       <c r="H59" s="8"/>
     </row>
-    <row r="60" spans="1:10" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B60" s="5">
         <f t="array" ref="B60:H60">Days+29+DATE(Calendar4Year,Calendar4MonthOption,1)-WEEKDAY(DATE(Calendar4Year,Calendar4MonthOption,1),WeekdayOption)</f>
         <v>42702</v>
@@ -2175,7 +2181,7 @@
         <v>42708</v>
       </c>
     </row>
-    <row r="61" spans="1:10" ht="57" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:10" ht="57" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B61" s="6"/>
       <c r="C61" s="6"/>
       <c r="D61" s="6"/>
@@ -2184,7 +2190,7 @@
       <c r="G61" s="6"/>
       <c r="H61" s="9"/>
     </row>
-    <row r="62" spans="1:10" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B62" s="5">
         <f t="array" ref="B62:C62">Days+36+DATE(Calendar4Year,Calendar4MonthOption,1)-WEEKDAY(DATE(Calendar4Year,Calendar4MonthOption,1),WeekdayOption)</f>
         <v>42709</v>
@@ -2200,16 +2206,16 @@
       <c r="G62" s="39"/>
       <c r="H62" s="39"/>
     </row>
-    <row r="63" spans="1:10" ht="63.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:10" ht="63.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B63" s="6"/>
       <c r="C63" s="6"/>
-      <c r="D63" s="37"/>
-      <c r="E63" s="37"/>
-      <c r="F63" s="37"/>
-      <c r="G63" s="37"/>
-      <c r="H63" s="37"/>
-    </row>
-    <row r="64" spans="1:10" s="23" customFormat="1" ht="19.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="D63" s="40"/>
+      <c r="E63" s="40"/>
+      <c r="F63" s="40"/>
+      <c r="G63" s="40"/>
+      <c r="H63" s="40"/>
+    </row>
+    <row r="64" spans="1:10" s="23" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A64" s="20"/>
       <c r="B64" s="21"/>
       <c r="C64" s="21"/>
@@ -2220,7 +2226,7 @@
       <c r="H64" s="22"/>
       <c r="J64" s="30"/>
     </row>
-    <row r="65" spans="1:10" s="1" customFormat="1" ht="54" hidden="1" customHeight="1" x14ac:dyDescent="1.35">
+    <row r="65" spans="1:10" s="1" customFormat="1" ht="54" customHeight="1" x14ac:dyDescent="1.35">
       <c r="B65" s="13">
         <f>YEAR(DATE(Calendar4Year,Calendar4MonthOption+1,1))</f>
         <v>2016</v>
@@ -2235,7 +2241,7 @@
       <c r="G65" s="4"/>
       <c r="J65" s="27"/>
     </row>
-    <row r="66" spans="1:10" s="1" customFormat="1" ht="48.75" hidden="1" customHeight="1" x14ac:dyDescent="1.35">
+    <row r="66" spans="1:10" s="1" customFormat="1" ht="48.75" customHeight="1" x14ac:dyDescent="1.35">
       <c r="B66" s="10"/>
       <c r="C66"/>
       <c r="D66" s="4"/>
@@ -2244,7 +2250,7 @@
       <c r="G66" s="4"/>
       <c r="J66" s="27"/>
     </row>
-    <row r="67" spans="1:10" s="3" customFormat="1" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:10" s="3" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A67" s="2"/>
       <c r="B67" s="16" t="str">
         <f>UPPER(TEXT(B68,"dddd"))</f>
@@ -2276,7 +2282,7 @@
       </c>
       <c r="J67" s="28"/>
     </row>
-    <row r="68" spans="1:10" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B68" s="5">
         <f t="array" ref="B68:H68">Days+1+DATE(Calendar5Year,Calendar5MonthOption,1)-WEEKDAY(DATE(Calendar5Year,Calendar5MonthOption,1),WeekdayOption)</f>
         <v>42702</v>
@@ -2300,7 +2306,7 @@
         <v>42708</v>
       </c>
     </row>
-    <row r="69" spans="1:10" ht="56.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:10" ht="56.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B69" s="6"/>
       <c r="C69" s="6"/>
       <c r="D69" s="6"/>
@@ -2309,7 +2315,7 @@
       <c r="G69" s="6"/>
       <c r="H69" s="8"/>
     </row>
-    <row r="70" spans="1:10" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B70" s="5">
         <f t="array" ref="B70:H70">Days+8+DATE(Calendar5Year,Calendar5MonthOption,1)-WEEKDAY(DATE(Calendar5Year,Calendar5MonthOption,1),WeekdayOption)</f>
         <v>42709</v>
@@ -2333,7 +2339,7 @@
         <v>42715</v>
       </c>
     </row>
-    <row r="71" spans="1:10" ht="56.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:10" ht="56.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B71" s="6"/>
       <c r="C71" s="6"/>
       <c r="D71" s="6"/>
@@ -2342,7 +2348,7 @@
       <c r="G71" s="6"/>
       <c r="H71" s="8"/>
     </row>
-    <row r="72" spans="1:10" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B72" s="5">
         <f t="array" ref="B72:H72">Days+15+DATE(Calendar5Year,Calendar5MonthOption,1)-WEEKDAY(DATE(Calendar5Year,Calendar5MonthOption,1),WeekdayOption)</f>
         <v>42716</v>
@@ -2366,7 +2372,7 @@
         <v>42722</v>
       </c>
     </row>
-    <row r="73" spans="1:10" ht="56.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:10" ht="56.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B73" s="6"/>
       <c r="C73" s="6"/>
       <c r="D73" s="6"/>
@@ -2375,7 +2381,7 @@
       <c r="G73" s="6"/>
       <c r="H73" s="8"/>
     </row>
-    <row r="74" spans="1:10" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B74" s="5">
         <f t="array" ref="B74:H74">Days+22+DATE(Calendar5Year,Calendar5MonthOption,1)-WEEKDAY(DATE(Calendar5Year,Calendar5MonthOption,1),WeekdayOption)</f>
         <v>42723</v>
@@ -2399,7 +2405,7 @@
         <v>42729</v>
       </c>
     </row>
-    <row r="75" spans="1:10" ht="56.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:10" ht="56.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B75" s="6"/>
       <c r="C75" s="6"/>
       <c r="D75" s="6"/>
@@ -2408,7 +2414,7 @@
       <c r="G75" s="6"/>
       <c r="H75" s="8"/>
     </row>
-    <row r="76" spans="1:10" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B76" s="5">
         <f t="array" ref="B76:H76">Days+29+DATE(Calendar5Year,Calendar5MonthOption,1)-WEEKDAY(DATE(Calendar5Year,Calendar5MonthOption,1),WeekdayOption)</f>
         <v>42730</v>
@@ -2432,7 +2438,7 @@
         <v>42736</v>
       </c>
     </row>
-    <row r="77" spans="1:10" ht="57" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:10" ht="57" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B77" s="6"/>
       <c r="C77" s="6"/>
       <c r="D77" s="6"/>
@@ -2441,7 +2447,7 @@
       <c r="G77" s="6"/>
       <c r="H77" s="9"/>
     </row>
-    <row r="78" spans="1:10" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B78" s="5">
         <f t="array" ref="B78:C78">Days+36+DATE(Calendar5Year,Calendar5MonthOption,1)-WEEKDAY(DATE(Calendar5Year,Calendar5MonthOption,1),WeekdayOption)</f>
         <v>42737</v>
@@ -2457,16 +2463,16 @@
       <c r="G78" s="39"/>
       <c r="H78" s="39"/>
     </row>
-    <row r="79" spans="1:10" ht="63.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:10" ht="63.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B79" s="6"/>
       <c r="C79" s="6"/>
-      <c r="D79" s="37"/>
-      <c r="E79" s="37"/>
-      <c r="F79" s="37"/>
-      <c r="G79" s="37"/>
-      <c r="H79" s="37"/>
-    </row>
-    <row r="80" spans="1:10" s="23" customFormat="1" ht="19.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="D79" s="40"/>
+      <c r="E79" s="40"/>
+      <c r="F79" s="40"/>
+      <c r="G79" s="40"/>
+      <c r="H79" s="40"/>
+    </row>
+    <row r="80" spans="1:10" s="23" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A80" s="20"/>
       <c r="B80" s="21"/>
       <c r="C80" s="21"/>
@@ -2477,7 +2483,7 @@
       <c r="H80" s="22"/>
       <c r="J80" s="30"/>
     </row>
-    <row r="81" spans="1:10" s="1" customFormat="1" ht="54" hidden="1" customHeight="1" x14ac:dyDescent="1.35">
+    <row r="81" spans="1:10" s="1" customFormat="1" ht="54" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="1.35">
       <c r="B81" s="13">
         <f>YEAR(DATE(Calendar5Year,Calendar5MonthOption+1,1))</f>
         <v>2017</v>
@@ -2492,7 +2498,7 @@
       <c r="G81" s="4"/>
       <c r="J81" s="27"/>
     </row>
-    <row r="82" spans="1:10" s="1" customFormat="1" ht="48.75" hidden="1" customHeight="1" x14ac:dyDescent="1.35">
+    <row r="82" spans="1:10" s="1" customFormat="1" ht="48.75" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="1.35">
       <c r="B82" s="10"/>
       <c r="C82"/>
       <c r="D82" s="4"/>
@@ -2501,7 +2507,7 @@
       <c r="G82" s="4"/>
       <c r="J82" s="27"/>
     </row>
-    <row r="83" spans="1:10" s="3" customFormat="1" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:10" s="3" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A83" s="2"/>
       <c r="B83" s="16" t="str">
         <f>UPPER(TEXT(B84,"dddd"))</f>
@@ -2533,7 +2539,7 @@
       </c>
       <c r="J83" s="28"/>
     </row>
-    <row r="84" spans="1:10" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:10" ht="16.5" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="B84" s="5">
         <f t="array" ref="B84:H84">Days+1+DATE(Calendar6Year,Calendar6MonthOption,1)-WEEKDAY(DATE(Calendar6Year,Calendar6MonthOption,1),WeekdayOption)</f>
         <v>42730</v>
@@ -2557,7 +2563,7 @@
         <v>42736</v>
       </c>
     </row>
-    <row r="85" spans="1:10" ht="56.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:10" ht="56.25" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="B85" s="6"/>
       <c r="C85" s="6"/>
       <c r="D85" s="6"/>
@@ -2566,7 +2572,7 @@
       <c r="G85" s="6"/>
       <c r="H85" s="8"/>
     </row>
-    <row r="86" spans="1:10" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:10" ht="16.5" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="B86" s="5">
         <f t="array" ref="B86:H86">Days+8+DATE(Calendar6Year,Calendar6MonthOption,1)-WEEKDAY(DATE(Calendar6Year,Calendar6MonthOption,1),WeekdayOption)</f>
         <v>42737</v>
@@ -2590,7 +2596,7 @@
         <v>42743</v>
       </c>
     </row>
-    <row r="87" spans="1:10" ht="56.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:10" ht="56.25" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="B87" s="6"/>
       <c r="C87" s="6"/>
       <c r="D87" s="6"/>
@@ -2599,7 +2605,7 @@
       <c r="G87" s="6"/>
       <c r="H87" s="8"/>
     </row>
-    <row r="88" spans="1:10" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:10" ht="16.5" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="B88" s="5">
         <f t="array" ref="B88:H88">Days+15+DATE(Calendar6Year,Calendar6MonthOption,1)-WEEKDAY(DATE(Calendar6Year,Calendar6MonthOption,1),WeekdayOption)</f>
         <v>42744</v>
@@ -2623,7 +2629,7 @@
         <v>42750</v>
       </c>
     </row>
-    <row r="89" spans="1:10" ht="56.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:10" ht="56.25" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="B89" s="6"/>
       <c r="C89" s="6"/>
       <c r="D89" s="6"/>
@@ -2632,7 +2638,7 @@
       <c r="G89" s="6"/>
       <c r="H89" s="8"/>
     </row>
-    <row r="90" spans="1:10" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:10" ht="16.5" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="B90" s="5">
         <f t="array" ref="B90:H90">Days+22+DATE(Calendar6Year,Calendar6MonthOption,1)-WEEKDAY(DATE(Calendar6Year,Calendar6MonthOption,1),WeekdayOption)</f>
         <v>42751</v>
@@ -2656,7 +2662,7 @@
         <v>42757</v>
       </c>
     </row>
-    <row r="91" spans="1:10" ht="56.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:10" ht="56.25" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="B91" s="6"/>
       <c r="C91" s="6"/>
       <c r="D91" s="6"/>
@@ -2665,7 +2671,7 @@
       <c r="G91" s="6"/>
       <c r="H91" s="8"/>
     </row>
-    <row r="92" spans="1:10" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:10" ht="16.5" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="B92" s="5">
         <f t="array" ref="B92:H92">Days+29+DATE(Calendar6Year,Calendar6MonthOption,1)-WEEKDAY(DATE(Calendar6Year,Calendar6MonthOption,1),WeekdayOption)</f>
         <v>42758</v>
@@ -2689,7 +2695,7 @@
         <v>42764</v>
       </c>
     </row>
-    <row r="93" spans="1:10" ht="57" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:10" ht="57" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="B93" s="6"/>
       <c r="C93" s="6"/>
       <c r="D93" s="6"/>
@@ -2698,7 +2704,7 @@
       <c r="G93" s="6"/>
       <c r="H93" s="9"/>
     </row>
-    <row r="94" spans="1:10" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:10" ht="16.5" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="B94" s="5">
         <f t="array" ref="B94:C94">Days+36+DATE(Calendar6Year,Calendar6MonthOption,1)-WEEKDAY(DATE(Calendar6Year,Calendar6MonthOption,1),WeekdayOption)</f>
         <v>42765</v>
@@ -2714,16 +2720,16 @@
       <c r="G94" s="39"/>
       <c r="H94" s="39"/>
     </row>
-    <row r="95" spans="1:10" ht="63.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:10" ht="63.75" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="B95" s="6"/>
       <c r="C95" s="6"/>
-      <c r="D95" s="37"/>
-      <c r="E95" s="37"/>
-      <c r="F95" s="37"/>
-      <c r="G95" s="37"/>
-      <c r="H95" s="37"/>
-    </row>
-    <row r="96" spans="1:10" s="23" customFormat="1" ht="19.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="D95" s="40"/>
+      <c r="E95" s="40"/>
+      <c r="F95" s="40"/>
+      <c r="G95" s="40"/>
+      <c r="H95" s="40"/>
+    </row>
+    <row r="96" spans="1:10" s="23" customFormat="1" ht="19.5" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A96" s="20"/>
       <c r="B96" s="21"/>
       <c r="C96" s="21"/>
@@ -2734,7 +2740,7 @@
       <c r="H96" s="22"/>
       <c r="J96" s="30"/>
     </row>
-    <row r="97" spans="1:10" s="1" customFormat="1" ht="54" hidden="1" customHeight="1" x14ac:dyDescent="1.35">
+    <row r="97" spans="1:10" s="1" customFormat="1" ht="54" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="1.35">
       <c r="B97" s="13">
         <f>YEAR(DATE(Calendar6Year,Calendar6MonthOption+1,1))</f>
         <v>2017</v>
@@ -2749,7 +2755,7 @@
       <c r="G97" s="4"/>
       <c r="J97" s="27"/>
     </row>
-    <row r="98" spans="1:10" s="1" customFormat="1" ht="48.75" hidden="1" customHeight="1" x14ac:dyDescent="1.35">
+    <row r="98" spans="1:10" s="1" customFormat="1" ht="48.75" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="1.35">
       <c r="B98" s="10"/>
       <c r="C98"/>
       <c r="D98" s="4"/>
@@ -2758,7 +2764,7 @@
       <c r="G98" s="4"/>
       <c r="J98" s="27"/>
     </row>
-    <row r="99" spans="1:10" s="3" customFormat="1" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:10" s="3" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A99" s="2"/>
       <c r="B99" s="16" t="str">
         <f>UPPER(TEXT(B100,"dddd"))</f>
@@ -2790,7 +2796,7 @@
       </c>
       <c r="J99" s="28"/>
     </row>
-    <row r="100" spans="1:10" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:10" ht="16.5" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="B100" s="5">
         <f t="array" ref="B100:H100">Days+1+DATE(Calendar7Year,Calendar7MonthOption,1)-WEEKDAY(DATE(Calendar7Year,Calendar7MonthOption,1),WeekdayOption)</f>
         <v>42765</v>
@@ -2814,7 +2820,7 @@
         <v>42771</v>
       </c>
     </row>
-    <row r="101" spans="1:10" ht="56.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:10" ht="56.25" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="B101" s="6"/>
       <c r="C101" s="6"/>
       <c r="D101" s="6"/>
@@ -2823,7 +2829,7 @@
       <c r="G101" s="6"/>
       <c r="H101" s="8"/>
     </row>
-    <row r="102" spans="1:10" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:10" ht="16.5" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="B102" s="5">
         <f t="array" ref="B102:H102">Days+8+DATE(Calendar7Year,Calendar7MonthOption,1)-WEEKDAY(DATE(Calendar7Year,Calendar7MonthOption,1),WeekdayOption)</f>
         <v>42772</v>
@@ -2847,7 +2853,7 @@
         <v>42778</v>
       </c>
     </row>
-    <row r="103" spans="1:10" ht="56.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:10" ht="56.25" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="B103" s="6"/>
       <c r="C103" s="6"/>
       <c r="D103" s="6"/>
@@ -2856,7 +2862,7 @@
       <c r="G103" s="6"/>
       <c r="H103" s="8"/>
     </row>
-    <row r="104" spans="1:10" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:10" ht="16.5" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="B104" s="5">
         <f t="array" ref="B104:H104">Days+15+DATE(Calendar7Year,Calendar7MonthOption,1)-WEEKDAY(DATE(Calendar7Year,Calendar7MonthOption,1),WeekdayOption)</f>
         <v>42779</v>
@@ -2880,7 +2886,7 @@
         <v>42785</v>
       </c>
     </row>
-    <row r="105" spans="1:10" ht="56.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:10" ht="56.25" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="B105" s="6"/>
       <c r="C105" s="6"/>
       <c r="D105" s="6"/>
@@ -2889,7 +2895,7 @@
       <c r="G105" s="6"/>
       <c r="H105" s="8"/>
     </row>
-    <row r="106" spans="1:10" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:10" ht="16.5" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="B106" s="5">
         <f t="array" ref="B106:H106">Days+22+DATE(Calendar7Year,Calendar7MonthOption,1)-WEEKDAY(DATE(Calendar7Year,Calendar7MonthOption,1),WeekdayOption)</f>
         <v>42786</v>
@@ -2913,7 +2919,7 @@
         <v>42792</v>
       </c>
     </row>
-    <row r="107" spans="1:10" ht="56.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:10" ht="56.25" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="B107" s="6"/>
       <c r="C107" s="6"/>
       <c r="D107" s="6"/>
@@ -2922,7 +2928,7 @@
       <c r="G107" s="6"/>
       <c r="H107" s="8"/>
     </row>
-    <row r="108" spans="1:10" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:10" ht="16.5" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="B108" s="5">
         <f t="array" ref="B108:H108">Days+29+DATE(Calendar7Year,Calendar7MonthOption,1)-WEEKDAY(DATE(Calendar7Year,Calendar7MonthOption,1),WeekdayOption)</f>
         <v>42793</v>
@@ -2946,7 +2952,7 @@
         <v>42799</v>
       </c>
     </row>
-    <row r="109" spans="1:10" ht="57" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:10" ht="57" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="B109" s="6"/>
       <c r="C109" s="6"/>
       <c r="D109" s="6"/>
@@ -2955,7 +2961,7 @@
       <c r="G109" s="6"/>
       <c r="H109" s="9"/>
     </row>
-    <row r="110" spans="1:10" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:10" ht="16.5" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="B110" s="5">
         <f t="array" ref="B110:C110">Days+36+DATE(Calendar7Year,Calendar7MonthOption,1)-WEEKDAY(DATE(Calendar7Year,Calendar7MonthOption,1),WeekdayOption)</f>
         <v>42800</v>
@@ -2971,16 +2977,16 @@
       <c r="G110" s="39"/>
       <c r="H110" s="39"/>
     </row>
-    <row r="111" spans="1:10" ht="63.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:10" ht="63.75" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="B111" s="6"/>
       <c r="C111" s="6"/>
-      <c r="D111" s="37"/>
-      <c r="E111" s="37"/>
-      <c r="F111" s="37"/>
-      <c r="G111" s="37"/>
-      <c r="H111" s="37"/>
-    </row>
-    <row r="112" spans="1:10" s="23" customFormat="1" ht="19.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="D111" s="40"/>
+      <c r="E111" s="40"/>
+      <c r="F111" s="40"/>
+      <c r="G111" s="40"/>
+      <c r="H111" s="40"/>
+    </row>
+    <row r="112" spans="1:10" s="23" customFormat="1" ht="19.5" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A112" s="20"/>
       <c r="B112" s="21"/>
       <c r="C112" s="21"/>
@@ -2991,7 +2997,7 @@
       <c r="H112" s="22"/>
       <c r="J112" s="30"/>
     </row>
-    <row r="113" spans="1:10" s="1" customFormat="1" ht="54" hidden="1" customHeight="1" x14ac:dyDescent="1.35">
+    <row r="113" spans="1:10" s="1" customFormat="1" ht="54" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="1.35">
       <c r="B113" s="13">
         <f>YEAR(DATE(Calendar7Year,Calendar7MonthOption+1,1))</f>
         <v>2017</v>
@@ -3006,7 +3012,7 @@
       <c r="G113" s="4"/>
       <c r="J113" s="27"/>
     </row>
-    <row r="114" spans="1:10" s="1" customFormat="1" ht="48.75" hidden="1" customHeight="1" x14ac:dyDescent="1.35">
+    <row r="114" spans="1:10" s="1" customFormat="1" ht="48.75" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="1.35">
       <c r="B114" s="10"/>
       <c r="C114"/>
       <c r="D114" s="4"/>
@@ -3015,7 +3021,7 @@
       <c r="G114" s="4"/>
       <c r="J114" s="27"/>
     </row>
-    <row r="115" spans="1:10" s="3" customFormat="1" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:10" s="3" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A115" s="2"/>
       <c r="B115" s="16" t="str">
         <f>UPPER(TEXT(B116,"dddd"))</f>
@@ -3047,7 +3053,7 @@
       </c>
       <c r="J115" s="28"/>
     </row>
-    <row r="116" spans="1:10" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:10" ht="16.5" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="B116" s="5">
         <f t="array" ref="B116:H116">Days+1+DATE(Calendar8Year,Calendar8MonthOption,1)-WEEKDAY(DATE(Calendar8Year,Calendar8MonthOption,1),WeekdayOption)</f>
         <v>42793</v>
@@ -3071,7 +3077,7 @@
         <v>42799</v>
       </c>
     </row>
-    <row r="117" spans="1:10" ht="56.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:10" ht="56.25" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="B117" s="6"/>
       <c r="C117" s="6"/>
       <c r="D117" s="6"/>
@@ -3080,7 +3086,7 @@
       <c r="G117" s="6"/>
       <c r="H117" s="8"/>
     </row>
-    <row r="118" spans="1:10" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:10" ht="16.5" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="B118" s="5">
         <f t="array" ref="B118:H118">Days+8+DATE(Calendar8Year,Calendar8MonthOption,1)-WEEKDAY(DATE(Calendar8Year,Calendar8MonthOption,1),WeekdayOption)</f>
         <v>42800</v>
@@ -3104,7 +3110,7 @@
         <v>42806</v>
       </c>
     </row>
-    <row r="119" spans="1:10" ht="56.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:10" ht="56.25" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="B119" s="6"/>
       <c r="C119" s="6"/>
       <c r="D119" s="6"/>
@@ -3113,7 +3119,7 @@
       <c r="G119" s="6"/>
       <c r="H119" s="8"/>
     </row>
-    <row r="120" spans="1:10" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:10" ht="16.5" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="B120" s="5">
         <f t="array" ref="B120:H120">Days+15+DATE(Calendar8Year,Calendar8MonthOption,1)-WEEKDAY(DATE(Calendar8Year,Calendar8MonthOption,1),WeekdayOption)</f>
         <v>42807</v>
@@ -3137,7 +3143,7 @@
         <v>42813</v>
       </c>
     </row>
-    <row r="121" spans="1:10" ht="56.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:10" ht="56.25" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="B121" s="6"/>
       <c r="C121" s="6"/>
       <c r="D121" s="6"/>
@@ -3146,7 +3152,7 @@
       <c r="G121" s="6"/>
       <c r="H121" s="8"/>
     </row>
-    <row r="122" spans="1:10" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:10" ht="16.5" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="B122" s="5">
         <f t="array" ref="B122:H122">Days+22+DATE(Calendar8Year,Calendar8MonthOption,1)-WEEKDAY(DATE(Calendar8Year,Calendar8MonthOption,1),WeekdayOption)</f>
         <v>42814</v>
@@ -3170,7 +3176,7 @@
         <v>42820</v>
       </c>
     </row>
-    <row r="123" spans="1:10" ht="56.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:10" ht="56.25" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="B123" s="6"/>
       <c r="C123" s="6"/>
       <c r="D123" s="6"/>
@@ -3179,7 +3185,7 @@
       <c r="G123" s="6"/>
       <c r="H123" s="8"/>
     </row>
-    <row r="124" spans="1:10" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:10" ht="16.5" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="B124" s="5">
         <f t="array" ref="B124:H124">Days+29+DATE(Calendar8Year,Calendar8MonthOption,1)-WEEKDAY(DATE(Calendar8Year,Calendar8MonthOption,1),WeekdayOption)</f>
         <v>42821</v>
@@ -3203,7 +3209,7 @@
         <v>42827</v>
       </c>
     </row>
-    <row r="125" spans="1:10" ht="57" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:10" ht="57" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="B125" s="6"/>
       <c r="C125" s="6"/>
       <c r="D125" s="6"/>
@@ -3212,7 +3218,7 @@
       <c r="G125" s="6"/>
       <c r="H125" s="9"/>
     </row>
-    <row r="126" spans="1:10" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:10" ht="16.5" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="B126" s="5">
         <f t="array" ref="B126:C126">Days+36+DATE(Calendar8Year,Calendar8MonthOption,1)-WEEKDAY(DATE(Calendar8Year,Calendar8MonthOption,1),WeekdayOption)</f>
         <v>42828</v>
@@ -3228,16 +3234,16 @@
       <c r="G126" s="39"/>
       <c r="H126" s="39"/>
     </row>
-    <row r="127" spans="1:10" ht="63.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:10" ht="63.75" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="B127" s="6"/>
       <c r="C127" s="6"/>
-      <c r="D127" s="37"/>
-      <c r="E127" s="37"/>
-      <c r="F127" s="37"/>
-      <c r="G127" s="37"/>
-      <c r="H127" s="37"/>
-    </row>
-    <row r="128" spans="1:10" s="23" customFormat="1" ht="19.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="D127" s="40"/>
+      <c r="E127" s="40"/>
+      <c r="F127" s="40"/>
+      <c r="G127" s="40"/>
+      <c r="H127" s="40"/>
+    </row>
+    <row r="128" spans="1:10" s="23" customFormat="1" ht="19.5" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A128" s="20"/>
       <c r="B128" s="21"/>
       <c r="C128" s="21"/>
@@ -3248,7 +3254,7 @@
       <c r="H128" s="22"/>
       <c r="J128" s="30"/>
     </row>
-    <row r="129" spans="1:10" s="1" customFormat="1" ht="54" hidden="1" customHeight="1" x14ac:dyDescent="1.35">
+    <row r="129" spans="1:10" s="1" customFormat="1" ht="54" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="1.35">
       <c r="B129" s="13">
         <f>YEAR(DATE(Calendar8Year,Calendar8MonthOption+1,1))</f>
         <v>2017</v>
@@ -3263,7 +3269,7 @@
       <c r="G129" s="4"/>
       <c r="J129" s="27"/>
     </row>
-    <row r="130" spans="1:10" s="1" customFormat="1" ht="48.75" hidden="1" customHeight="1" x14ac:dyDescent="1.35">
+    <row r="130" spans="1:10" s="1" customFormat="1" ht="48.75" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="1.35">
       <c r="B130" s="10"/>
       <c r="C130"/>
       <c r="D130" s="4"/>
@@ -3272,7 +3278,7 @@
       <c r="G130" s="4"/>
       <c r="J130" s="27"/>
     </row>
-    <row r="131" spans="1:10" s="3" customFormat="1" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:10" s="3" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A131" s="2"/>
       <c r="B131" s="16" t="str">
         <f>UPPER(TEXT(B132,"dddd"))</f>
@@ -3304,7 +3310,7 @@
       </c>
       <c r="J131" s="28"/>
     </row>
-    <row r="132" spans="1:10" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:10" ht="16.5" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="B132" s="5">
         <f t="array" ref="B132:H132">Days+1+DATE(Calendar9Year,Calendar9MonthOption,1)-WEEKDAY(DATE(Calendar9Year,Calendar9MonthOption,1),WeekdayOption)</f>
         <v>42821</v>
@@ -3328,7 +3334,7 @@
         <v>42827</v>
       </c>
     </row>
-    <row r="133" spans="1:10" ht="56.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:10" ht="56.25" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="B133" s="6"/>
       <c r="C133" s="6"/>
       <c r="D133" s="6"/>
@@ -3337,7 +3343,7 @@
       <c r="G133" s="6"/>
       <c r="H133" s="8"/>
     </row>
-    <row r="134" spans="1:10" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:10" ht="16.5" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="B134" s="5">
         <f t="array" ref="B134:H134">Days+8+DATE(Calendar9Year,Calendar9MonthOption,1)-WEEKDAY(DATE(Calendar9Year,Calendar9MonthOption,1),WeekdayOption)</f>
         <v>42828</v>
@@ -3361,7 +3367,7 @@
         <v>42834</v>
       </c>
     </row>
-    <row r="135" spans="1:10" ht="56.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:10" ht="56.25" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="B135" s="6"/>
       <c r="C135" s="6"/>
       <c r="D135" s="6"/>
@@ -3370,7 +3376,7 @@
       <c r="G135" s="6"/>
       <c r="H135" s="8"/>
     </row>
-    <row r="136" spans="1:10" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:10" ht="16.5" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="B136" s="5">
         <f t="array" ref="B136:H136">Days+15+DATE(Calendar9Year,Calendar9MonthOption,1)-WEEKDAY(DATE(Calendar9Year,Calendar9MonthOption,1),WeekdayOption)</f>
         <v>42835</v>
@@ -3394,7 +3400,7 @@
         <v>42841</v>
       </c>
     </row>
-    <row r="137" spans="1:10" ht="56.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:10" ht="56.25" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="B137" s="6"/>
       <c r="C137" s="6"/>
       <c r="D137" s="6"/>
@@ -3403,7 +3409,7 @@
       <c r="G137" s="6"/>
       <c r="H137" s="8"/>
     </row>
-    <row r="138" spans="1:10" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:10" ht="16.5" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="B138" s="5">
         <f t="array" ref="B138:H138">Days+22+DATE(Calendar9Year,Calendar9MonthOption,1)-WEEKDAY(DATE(Calendar9Year,Calendar9MonthOption,1),WeekdayOption)</f>
         <v>42842</v>
@@ -3427,7 +3433,7 @@
         <v>42848</v>
       </c>
     </row>
-    <row r="139" spans="1:10" ht="56.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:10" ht="56.25" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="B139" s="6"/>
       <c r="C139" s="6"/>
       <c r="D139" s="6"/>
@@ -3436,7 +3442,7 @@
       <c r="G139" s="6"/>
       <c r="H139" s="8"/>
     </row>
-    <row r="140" spans="1:10" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:10" ht="16.5" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="B140" s="5">
         <f t="array" ref="B140:H140">Days+29+DATE(Calendar9Year,Calendar9MonthOption,1)-WEEKDAY(DATE(Calendar9Year,Calendar9MonthOption,1),WeekdayOption)</f>
         <v>42849</v>
@@ -3460,7 +3466,7 @@
         <v>42855</v>
       </c>
     </row>
-    <row r="141" spans="1:10" ht="57" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:10" ht="57" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="B141" s="6"/>
       <c r="C141" s="6"/>
       <c r="D141" s="6"/>
@@ -3469,7 +3475,7 @@
       <c r="G141" s="6"/>
       <c r="H141" s="9"/>
     </row>
-    <row r="142" spans="1:10" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:10" ht="16.5" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="B142" s="5">
         <f t="array" ref="B142:C142">Days+36+DATE(Calendar9Year,Calendar9MonthOption,1)-WEEKDAY(DATE(Calendar9Year,Calendar9MonthOption,1),WeekdayOption)</f>
         <v>42856</v>
@@ -3485,16 +3491,16 @@
       <c r="G142" s="39"/>
       <c r="H142" s="39"/>
     </row>
-    <row r="143" spans="1:10" ht="63.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:10" ht="63.75" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="B143" s="6"/>
       <c r="C143" s="6"/>
-      <c r="D143" s="37"/>
-      <c r="E143" s="37"/>
-      <c r="F143" s="37"/>
-      <c r="G143" s="37"/>
-      <c r="H143" s="37"/>
-    </row>
-    <row r="144" spans="1:10" s="23" customFormat="1" ht="19.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="D143" s="40"/>
+      <c r="E143" s="40"/>
+      <c r="F143" s="40"/>
+      <c r="G143" s="40"/>
+      <c r="H143" s="40"/>
+    </row>
+    <row r="144" spans="1:10" s="23" customFormat="1" ht="19.5" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A144" s="20"/>
       <c r="B144" s="21"/>
       <c r="C144" s="21"/>
@@ -3505,7 +3511,7 @@
       <c r="H144" s="22"/>
       <c r="J144" s="30"/>
     </row>
-    <row r="145" spans="1:10" s="1" customFormat="1" ht="54" hidden="1" customHeight="1" x14ac:dyDescent="1.35">
+    <row r="145" spans="1:10" s="1" customFormat="1" ht="54" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="1.35">
       <c r="B145" s="13">
         <f>YEAR(DATE(Calendar9Year,Calendar9MonthOption+1,1))</f>
         <v>2017</v>
@@ -3520,7 +3526,7 @@
       <c r="G145" s="4"/>
       <c r="J145" s="27"/>
     </row>
-    <row r="146" spans="1:10" s="1" customFormat="1" ht="48.75" hidden="1" customHeight="1" x14ac:dyDescent="1.35">
+    <row r="146" spans="1:10" s="1" customFormat="1" ht="48.75" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="1.35">
       <c r="B146" s="11"/>
       <c r="C146"/>
       <c r="D146" s="4"/>
@@ -3529,7 +3535,7 @@
       <c r="G146" s="4"/>
       <c r="J146" s="27"/>
     </row>
-    <row r="147" spans="1:10" s="3" customFormat="1" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:10" s="3" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A147" s="2"/>
       <c r="B147" s="16" t="str">
         <f>UPPER(TEXT(B148,"dddd"))</f>
@@ -3561,7 +3567,7 @@
       </c>
       <c r="J147" s="28"/>
     </row>
-    <row r="148" spans="1:10" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:10" ht="16.5" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="B148" s="5">
         <f t="array" ref="B148:H148">Days+1+DATE(Calendar10Year,Calendar10MonthOption,1)-WEEKDAY(DATE(Calendar10Year,Calendar10MonthOption,1),WeekdayOption)</f>
         <v>42856</v>
@@ -3585,7 +3591,7 @@
         <v>42862</v>
       </c>
     </row>
-    <row r="149" spans="1:10" ht="56.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:10" ht="56.25" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="B149" s="6"/>
       <c r="C149" s="6"/>
       <c r="D149" s="6"/>
@@ -3594,7 +3600,7 @@
       <c r="G149" s="6"/>
       <c r="H149" s="8"/>
     </row>
-    <row r="150" spans="1:10" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:10" ht="16.5" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="B150" s="5">
         <f t="array" ref="B150:H150">Days+8+DATE(Calendar10Year,Calendar10MonthOption,1)-WEEKDAY(DATE(Calendar10Year,Calendar10MonthOption,1),WeekdayOption)</f>
         <v>42863</v>
@@ -3618,7 +3624,7 @@
         <v>42869</v>
       </c>
     </row>
-    <row r="151" spans="1:10" ht="56.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:10" ht="56.25" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="B151" s="6"/>
       <c r="C151" s="6"/>
       <c r="D151" s="6"/>
@@ -3627,7 +3633,7 @@
       <c r="G151" s="6"/>
       <c r="H151" s="8"/>
     </row>
-    <row r="152" spans="1:10" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:10" ht="16.5" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="B152" s="5">
         <f t="array" ref="B152:H152">Days+15+DATE(Calendar10Year,Calendar10MonthOption,1)-WEEKDAY(DATE(Calendar10Year,Calendar10MonthOption,1),WeekdayOption)</f>
         <v>42870</v>
@@ -3651,7 +3657,7 @@
         <v>42876</v>
       </c>
     </row>
-    <row r="153" spans="1:10" ht="56.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:10" ht="56.25" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="B153" s="6"/>
       <c r="C153" s="6"/>
       <c r="D153" s="6"/>
@@ -3660,7 +3666,7 @@
       <c r="G153" s="6"/>
       <c r="H153" s="8"/>
     </row>
-    <row r="154" spans="1:10" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:10" ht="16.5" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="B154" s="5">
         <f t="array" ref="B154:H154">Days+22+DATE(Calendar10Year,Calendar10MonthOption,1)-WEEKDAY(DATE(Calendar10Year,Calendar10MonthOption,1),WeekdayOption)</f>
         <v>42877</v>
@@ -3684,7 +3690,7 @@
         <v>42883</v>
       </c>
     </row>
-    <row r="155" spans="1:10" ht="56.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:10" ht="56.25" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="B155" s="6"/>
       <c r="C155" s="6"/>
       <c r="D155" s="6"/>
@@ -3693,7 +3699,7 @@
       <c r="G155" s="6"/>
       <c r="H155" s="8"/>
     </row>
-    <row r="156" spans="1:10" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:10" ht="16.5" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="B156" s="5">
         <f t="array" ref="B156:H156">Days+29+DATE(Calendar10Year,Calendar10MonthOption,1)-WEEKDAY(DATE(Calendar10Year,Calendar10MonthOption,1),WeekdayOption)</f>
         <v>42884</v>
@@ -3717,7 +3723,7 @@
         <v>42890</v>
       </c>
     </row>
-    <row r="157" spans="1:10" ht="57" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:10" ht="57" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="B157" s="6"/>
       <c r="C157" s="6"/>
       <c r="D157" s="6"/>
@@ -3726,7 +3732,7 @@
       <c r="G157" s="6"/>
       <c r="H157" s="9"/>
     </row>
-    <row r="158" spans="1:10" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:10" ht="16.5" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="B158" s="5">
         <f t="array" ref="B158:C158">Days+36+DATE(Calendar10Year,Calendar10MonthOption,1)-WEEKDAY(DATE(Calendar10Year,Calendar10MonthOption,1),WeekdayOption)</f>
         <v>42891</v>
@@ -3742,16 +3748,16 @@
       <c r="G158" s="39"/>
       <c r="H158" s="39"/>
     </row>
-    <row r="159" spans="1:10" ht="63.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:10" ht="63.75" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="B159" s="6"/>
       <c r="C159" s="6"/>
-      <c r="D159" s="37"/>
-      <c r="E159" s="37"/>
-      <c r="F159" s="37"/>
-      <c r="G159" s="37"/>
-      <c r="H159" s="37"/>
-    </row>
-    <row r="160" spans="1:10" s="23" customFormat="1" ht="19.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="D159" s="40"/>
+      <c r="E159" s="40"/>
+      <c r="F159" s="40"/>
+      <c r="G159" s="40"/>
+      <c r="H159" s="40"/>
+    </row>
+    <row r="160" spans="1:10" s="23" customFormat="1" ht="19.5" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A160" s="20"/>
       <c r="B160" s="21"/>
       <c r="C160" s="21"/>
@@ -3762,7 +3768,7 @@
       <c r="H160" s="22"/>
       <c r="J160" s="30"/>
     </row>
-    <row r="161" spans="1:10" s="1" customFormat="1" ht="54" hidden="1" customHeight="1" x14ac:dyDescent="1.35">
+    <row r="161" spans="1:10" s="1" customFormat="1" ht="54" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="1.35">
       <c r="B161" s="13">
         <f>YEAR(DATE(Calendar10Year,Calendar10MonthOption+1,1))</f>
         <v>2017</v>
@@ -3777,7 +3783,7 @@
       <c r="G161" s="4"/>
       <c r="J161" s="27"/>
     </row>
-    <row r="162" spans="1:10" s="1" customFormat="1" ht="48.75" hidden="1" customHeight="1" x14ac:dyDescent="1.35">
+    <row r="162" spans="1:10" s="1" customFormat="1" ht="48.75" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="1.35">
       <c r="B162" s="11"/>
       <c r="C162"/>
       <c r="D162" s="4"/>
@@ -3786,7 +3792,7 @@
       <c r="G162" s="4"/>
       <c r="J162" s="27"/>
     </row>
-    <row r="163" spans="1:10" s="3" customFormat="1" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:10" s="3" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A163" s="2"/>
       <c r="B163" s="16" t="str">
         <f>UPPER(TEXT(B164,"dddd"))</f>
@@ -3818,7 +3824,7 @@
       </c>
       <c r="J163" s="28"/>
     </row>
-    <row r="164" spans="1:10" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:10" ht="16.5" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="B164" s="5">
         <f t="array" ref="B164:H164">Days+1+DATE(Calendar11Year,Calendar11MonthOption,1)-WEEKDAY(DATE(Calendar11Year,Calendar11MonthOption,1),WeekdayOption)</f>
         <v>42884</v>
@@ -3842,7 +3848,7 @@
         <v>42890</v>
       </c>
     </row>
-    <row r="165" spans="1:10" ht="56.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:10" ht="56.25" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="B165" s="6"/>
       <c r="C165" s="6"/>
       <c r="D165" s="6"/>
@@ -3851,7 +3857,7 @@
       <c r="G165" s="6"/>
       <c r="H165" s="8"/>
     </row>
-    <row r="166" spans="1:10" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:10" ht="16.5" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="B166" s="5">
         <f t="array" ref="B166:H166">Days+8+DATE(Calendar11Year,Calendar11MonthOption,1)-WEEKDAY(DATE(Calendar11Year,Calendar11MonthOption,1),WeekdayOption)</f>
         <v>42891</v>
@@ -3875,7 +3881,7 @@
         <v>42897</v>
       </c>
     </row>
-    <row r="167" spans="1:10" ht="56.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:10" ht="56.25" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="B167" s="6"/>
       <c r="C167" s="6"/>
       <c r="D167" s="6"/>
@@ -3884,7 +3890,7 @@
       <c r="G167" s="6"/>
       <c r="H167" s="8"/>
     </row>
-    <row r="168" spans="1:10" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:10" ht="16.5" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="B168" s="5">
         <f t="array" ref="B168:H168">Days+15+DATE(Calendar11Year,Calendar11MonthOption,1)-WEEKDAY(DATE(Calendar11Year,Calendar11MonthOption,1),WeekdayOption)</f>
         <v>42898</v>
@@ -3908,7 +3914,7 @@
         <v>42904</v>
       </c>
     </row>
-    <row r="169" spans="1:10" ht="56.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:10" ht="56.25" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="B169" s="6"/>
       <c r="C169" s="6"/>
       <c r="D169" s="6"/>
@@ -3917,7 +3923,7 @@
       <c r="G169" s="6"/>
       <c r="H169" s="8"/>
     </row>
-    <row r="170" spans="1:10" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:10" ht="16.5" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="B170" s="5">
         <f t="array" ref="B170:H170">Days+22+DATE(Calendar11Year,Calendar11MonthOption,1)-WEEKDAY(DATE(Calendar11Year,Calendar11MonthOption,1),WeekdayOption)</f>
         <v>42905</v>
@@ -3941,7 +3947,7 @@
         <v>42911</v>
       </c>
     </row>
-    <row r="171" spans="1:10" ht="56.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:10" ht="56.25" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="B171" s="6"/>
       <c r="C171" s="6"/>
       <c r="D171" s="6"/>
@@ -3950,7 +3956,7 @@
       <c r="G171" s="6"/>
       <c r="H171" s="8"/>
     </row>
-    <row r="172" spans="1:10" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:10" ht="16.5" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="B172" s="5">
         <f t="array" ref="B172:H172">Days+29+DATE(Calendar11Year,Calendar11MonthOption,1)-WEEKDAY(DATE(Calendar11Year,Calendar11MonthOption,1),WeekdayOption)</f>
         <v>42912</v>
@@ -3974,7 +3980,7 @@
         <v>42918</v>
       </c>
     </row>
-    <row r="173" spans="1:10" ht="57" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:10" ht="57" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="B173" s="6"/>
       <c r="C173" s="6"/>
       <c r="D173" s="6"/>
@@ -3983,7 +3989,7 @@
       <c r="G173" s="6"/>
       <c r="H173" s="9"/>
     </row>
-    <row r="174" spans="1:10" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:10" ht="16.5" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="B174" s="5">
         <f t="array" ref="B174:C174">Days+36+DATE(Calendar11Year,Calendar11MonthOption,1)-WEEKDAY(DATE(Calendar11Year,Calendar11MonthOption,1),WeekdayOption)</f>
         <v>42919</v>
@@ -3999,16 +4005,16 @@
       <c r="G174" s="39"/>
       <c r="H174" s="39"/>
     </row>
-    <row r="175" spans="1:10" ht="63.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:10" ht="63.75" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="B175" s="6"/>
       <c r="C175" s="6"/>
-      <c r="D175" s="37"/>
-      <c r="E175" s="37"/>
-      <c r="F175" s="37"/>
-      <c r="G175" s="37"/>
-      <c r="H175" s="37"/>
-    </row>
-    <row r="176" spans="1:10" s="23" customFormat="1" ht="19.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="D175" s="40"/>
+      <c r="E175" s="40"/>
+      <c r="F175" s="40"/>
+      <c r="G175" s="40"/>
+      <c r="H175" s="40"/>
+    </row>
+    <row r="176" spans="1:10" s="23" customFormat="1" ht="19.5" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A176" s="20"/>
       <c r="B176" s="21"/>
       <c r="C176" s="21"/>
@@ -4019,7 +4025,7 @@
       <c r="H176" s="22"/>
       <c r="J176" s="30"/>
     </row>
-    <row r="177" spans="1:10" s="1" customFormat="1" ht="54" hidden="1" customHeight="1" x14ac:dyDescent="1.35">
+    <row r="177" spans="1:10" s="1" customFormat="1" ht="54" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="1.35">
       <c r="B177" s="13">
         <f>YEAR(DATE(Calendar11Year,Calendar11MonthOption+1,1))</f>
         <v>2017</v>
@@ -4034,7 +4040,7 @@
       <c r="G177" s="4"/>
       <c r="J177" s="27"/>
     </row>
-    <row r="178" spans="1:10" s="1" customFormat="1" ht="48.75" hidden="1" customHeight="1" x14ac:dyDescent="1.35">
+    <row r="178" spans="1:10" s="1" customFormat="1" ht="48.75" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="1.35">
       <c r="B178" s="11"/>
       <c r="C178"/>
       <c r="D178" s="4"/>
@@ -4043,7 +4049,7 @@
       <c r="G178" s="4"/>
       <c r="J178" s="27"/>
     </row>
-    <row r="179" spans="1:10" s="3" customFormat="1" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:10" s="3" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A179" s="2"/>
       <c r="B179" s="16" t="str">
         <f>UPPER(TEXT(B180,"dddd"))</f>
@@ -4075,7 +4081,7 @@
       </c>
       <c r="J179" s="28"/>
     </row>
-    <row r="180" spans="1:10" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:10" ht="16.5" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="B180" s="5">
         <f t="array" ref="B180:H180">Days+1+DATE(Calendar12Year,Calendar12MonthOption,1)-WEEKDAY(DATE(Calendar12Year,Calendar12MonthOption,1),WeekdayOption)</f>
         <v>42912</v>
@@ -4099,7 +4105,7 @@
         <v>42918</v>
       </c>
     </row>
-    <row r="181" spans="1:10" ht="56.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:10" ht="56.25" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="B181" s="6"/>
       <c r="C181" s="6"/>
       <c r="D181" s="6"/>
@@ -4108,7 +4114,7 @@
       <c r="G181" s="6"/>
       <c r="H181" s="8"/>
     </row>
-    <row r="182" spans="1:10" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:10" ht="16.5" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="B182" s="5">
         <f t="array" ref="B182:H182">Days+8+DATE(Calendar12Year,Calendar12MonthOption,1)-WEEKDAY(DATE(Calendar12Year,Calendar12MonthOption,1),WeekdayOption)</f>
         <v>42919</v>
@@ -4132,7 +4138,7 @@
         <v>42925</v>
       </c>
     </row>
-    <row r="183" spans="1:10" ht="56.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:10" ht="56.25" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="B183" s="6"/>
       <c r="C183" s="6"/>
       <c r="D183" s="6"/>
@@ -4141,7 +4147,7 @@
       <c r="G183" s="6"/>
       <c r="H183" s="8"/>
     </row>
-    <row r="184" spans="1:10" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:10" ht="16.5" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="B184" s="5">
         <f t="array" ref="B184:H184">Days+15+DATE(Calendar12Year,Calendar12MonthOption,1)-WEEKDAY(DATE(Calendar12Year,Calendar12MonthOption,1),WeekdayOption)</f>
         <v>42926</v>
@@ -4165,7 +4171,7 @@
         <v>42932</v>
       </c>
     </row>
-    <row r="185" spans="1:10" ht="56.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:10" ht="56.25" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="B185" s="6"/>
       <c r="C185" s="6"/>
       <c r="D185" s="6"/>
@@ -4174,7 +4180,7 @@
       <c r="G185" s="6"/>
       <c r="H185" s="8"/>
     </row>
-    <row r="186" spans="1:10" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:10" ht="16.5" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="B186" s="5">
         <f t="array" ref="B186:H186">Days+22+DATE(Calendar12Year,Calendar12MonthOption,1)-WEEKDAY(DATE(Calendar12Year,Calendar12MonthOption,1),WeekdayOption)</f>
         <v>42933</v>
@@ -4198,7 +4204,7 @@
         <v>42939</v>
       </c>
     </row>
-    <row r="187" spans="1:10" ht="56.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:10" ht="56.25" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="B187" s="6"/>
       <c r="C187" s="6"/>
       <c r="D187" s="6"/>
@@ -4207,7 +4213,7 @@
       <c r="G187" s="6"/>
       <c r="H187" s="8"/>
     </row>
-    <row r="188" spans="1:10" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:10" ht="16.5" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="B188" s="5">
         <f t="array" ref="B188:H188">Days+29+DATE(Calendar12Year,Calendar12MonthOption,1)-WEEKDAY(DATE(Calendar12Year,Calendar12MonthOption,1),WeekdayOption)</f>
         <v>42940</v>
@@ -4231,7 +4237,7 @@
         <v>42946</v>
       </c>
     </row>
-    <row r="189" spans="1:10" ht="57" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:10" ht="57" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="B189" s="6"/>
       <c r="C189" s="6"/>
       <c r="D189" s="6"/>
@@ -4240,7 +4246,7 @@
       <c r="G189" s="6"/>
       <c r="H189" s="9"/>
     </row>
-    <row r="190" spans="1:10" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:10" ht="21" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="B190" s="5">
         <f t="array" ref="B190:C190">Days+36+DATE(Calendar12Year,Calendar12MonthOption,1)-WEEKDAY(DATE(Calendar12Year,Calendar12MonthOption,1),WeekdayOption)</f>
         <v>42947</v>
@@ -4256,22 +4262,31 @@
       <c r="G190" s="39"/>
       <c r="H190" s="39"/>
     </row>
-    <row r="191" spans="1:10" ht="63.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:10" ht="14.65" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="B191" s="6"/>
       <c r="C191" s="6"/>
-      <c r="D191" s="37"/>
-      <c r="E191" s="37"/>
-      <c r="F191" s="37"/>
-      <c r="G191" s="37"/>
-      <c r="H191" s="37"/>
-    </row>
+      <c r="D191" s="40"/>
+      <c r="E191" s="40"/>
+      <c r="F191" s="40"/>
+      <c r="G191" s="40"/>
+      <c r="H191" s="40"/>
+    </row>
+    <row r="192" spans="1:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35"/>
+    <row r="193" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35"/>
+    <row r="194" collapsed="1" x14ac:dyDescent="0.35"/>
   </sheetData>
+  <dataConsolidate/>
   <mergeCells count="25">
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="D14:H14"/>
-    <mergeCell ref="D30:H30"/>
-    <mergeCell ref="D15:H15"/>
-    <mergeCell ref="D31:H31"/>
+    <mergeCell ref="D191:H191"/>
+    <mergeCell ref="D158:H158"/>
+    <mergeCell ref="D159:H159"/>
+    <mergeCell ref="D110:H110"/>
+    <mergeCell ref="D95:H95"/>
+    <mergeCell ref="D143:H143"/>
+    <mergeCell ref="D126:H126"/>
+    <mergeCell ref="D142:H142"/>
+    <mergeCell ref="D111:H111"/>
+    <mergeCell ref="D127:H127"/>
     <mergeCell ref="D46:H46"/>
     <mergeCell ref="D94:H94"/>
     <mergeCell ref="D174:H174"/>
@@ -4282,16 +4297,11 @@
     <mergeCell ref="D79:H79"/>
     <mergeCell ref="D62:H62"/>
     <mergeCell ref="D78:H78"/>
-    <mergeCell ref="D191:H191"/>
-    <mergeCell ref="D158:H158"/>
-    <mergeCell ref="D159:H159"/>
-    <mergeCell ref="D110:H110"/>
-    <mergeCell ref="D95:H95"/>
-    <mergeCell ref="D143:H143"/>
-    <mergeCell ref="D126:H126"/>
-    <mergeCell ref="D142:H142"/>
-    <mergeCell ref="D111:H111"/>
-    <mergeCell ref="D127:H127"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="D14:H14"/>
+    <mergeCell ref="D30:H30"/>
+    <mergeCell ref="D15:H15"/>
+    <mergeCell ref="D31:H31"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="B4:H4 B6:H6 B8:H8 B10:H10 B12:H12 B14:C14">
@@ -4394,13 +4404,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.4" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="9.23046875" style="25"/>
+    <col min="1" max="1" width="11.07421875" style="25" customWidth="1"/>
     <col min="2" max="2" width="20.23046875" style="25" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="44.53515625" style="25" customWidth="1"/>
     <col min="4" max="16384" width="9.23046875" style="25"/>
@@ -4455,7 +4465,7 @@
         <v>8</v>
       </c>
       <c r="C5" s="26">
-        <v>50</v>
+        <v>100</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="24.85" customHeight="1" x14ac:dyDescent="0.35">
@@ -4466,7 +4476,7 @@
         <v>9</v>
       </c>
       <c r="C6" s="26">
-        <v>50</v>
+        <v>100</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="24.85" customHeight="1" x14ac:dyDescent="0.35">
@@ -4477,7 +4487,7 @@
         <v>10</v>
       </c>
       <c r="C7" s="26">
-        <v>50</v>
+        <v>75</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="24.85" customHeight="1" x14ac:dyDescent="0.35">
